--- a/Layout/layout.xlsx
+++ b/Layout/layout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="70">
   <si>
     <t>id_pedido</t>
   </si>
@@ -58,13 +58,25 @@
     <t>observacao</t>
   </si>
   <si>
-    <t>6068</t>
-  </si>
-  <si>
-    <t>52316501000185</t>
-  </si>
-  <si>
-    <t>LUMISTORE COMERCIO LTDA</t>
+    <t>6078</t>
+  </si>
+  <si>
+    <t>6070</t>
+  </si>
+  <si>
+    <t>6071</t>
+  </si>
+  <si>
+    <t>02066848000149</t>
+  </si>
+  <si>
+    <t>36476993000110</t>
+  </si>
+  <si>
+    <t>Led Luz Ltda.</t>
+  </si>
+  <si>
+    <t>DISOMA DIST. DE MATERIAIS ELETRICOS E ILUMINACAO LTDA</t>
   </si>
   <si>
     <t>OpusLed</t>
@@ -73,76 +85,145 @@
     <t>SãoPaulo</t>
   </si>
   <si>
-    <t>OPS 82925</t>
-  </si>
-  <si>
-    <t>OPS 82918</t>
-  </si>
-  <si>
-    <t>OPS 82901</t>
-  </si>
-  <si>
-    <t>OPS 86947</t>
-  </si>
-  <si>
-    <t>OPS 85582</t>
-  </si>
-  <si>
-    <t>OPS 36472</t>
+    <t>MinasGerais</t>
+  </si>
+  <si>
+    <t>OPS 33709</t>
+  </si>
+  <si>
+    <t>OPS 80464</t>
+  </si>
+  <si>
+    <t>OPS 82604</t>
+  </si>
+  <si>
+    <t>OPS 80457</t>
+  </si>
+  <si>
+    <t>OPS 82871</t>
+  </si>
+  <si>
+    <t>OPS 86626</t>
+  </si>
+  <si>
+    <t>LP 85094</t>
+  </si>
+  <si>
+    <t>LP 85063</t>
+  </si>
+  <si>
+    <t>OPS 81751</t>
+  </si>
+  <si>
+    <t>OPS 86817</t>
+  </si>
+  <si>
+    <t>OPS 88309</t>
+  </si>
+  <si>
+    <t>OPS 85612</t>
+  </si>
+  <si>
+    <t>OPS 88378</t>
   </si>
   <si>
     <t>OPS 85605</t>
   </si>
   <si>
-    <t>PLAFON HOOP 72W 3000K/6500K 5760LUM. DOURADO BIVOLT</t>
-  </si>
-  <si>
-    <t>PLAFON HOOP 72W 3000K/6500K 5760LUM. PRETO BIVOLT</t>
-  </si>
-  <si>
-    <t>PLAFON HOOP 72W 3000K/6500K 5760LUM. BRANCO BIVOLT</t>
-  </si>
-  <si>
-    <t>AIR BASIC 30W 1500LUMENS BIVOLT MADEIRA</t>
-  </si>
-  <si>
-    <t>AIR BASIC 30W 1500LUMENS BIVOLT PRETO</t>
-  </si>
-  <si>
-    <t>AIR BASIC 30W 1500LUMENS BIVOLT BRANCO</t>
+    <t>PRO EMBUTIDO SOLO 10W 3000K 12° IP67 BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t>FONTE SLIM 72W 6A 12V/DC</t>
+  </si>
+  <si>
+    <t>FONTE SLIM 120W 10A 12V/DC</t>
+  </si>
+  <si>
+    <t>FONTE SLIM 48W 4A 12V/DC</t>
+  </si>
+  <si>
+    <t>MINI IGLU RED. 8W 3000K PRETO IP65</t>
+  </si>
+  <si>
+    <t>HOME LUMINARIA ASTRONAUTA</t>
+  </si>
+  <si>
+    <t>LAMPE PAR30 10W 3000K E27 IP65</t>
+  </si>
+  <si>
+    <t>LAMPE PAR20 7W 3000K E27 IP65</t>
+  </si>
+  <si>
+    <t>ARANDELA HOME 8W 3000K PRETO EM PC</t>
+  </si>
+  <si>
+    <t>HOME SPOT SOBREPOR REDONDO 3W 3000K BR</t>
+  </si>
+  <si>
+    <t>AIR MIDAS BIVOLT DOURADO</t>
+  </si>
+  <si>
+    <t>AIR CRISTAL 60W 3000LUMENS BIVOLT DOURADO</t>
+  </si>
+  <si>
+    <t>AIR GOLD 60W 3000LUMENS BIVOLT DOURADO</t>
   </si>
   <si>
     <t>AIR SAGITA 60W 3000LUMENS BIVOLT</t>
   </si>
   <si>
-    <t>10</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>23365</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>28/42/56/70/84/98</t>
-  </si>
-  <si>
-    <t>RODOVIARIO CAMPINAS</t>
-  </si>
-  <si>
-    <t>Campanha expolux</t>
+    <t>28/42/56/70</t>
+  </si>
+  <si>
+    <t>A VISTA ANTECIPADO</t>
+  </si>
+  <si>
+    <t>TRANSZECAO TRANSPORT</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>FAVOR FATURAR ESPECIAL 50% 2° - PEDIDO PROGRAMADO: FAVOR FATURAR 30 DIA APOS O 1° PEDIDO</t>
+  </si>
+  <si>
+    <t>FAVOR FATURAR ESPECIAL 50% 3° - PEDIDO PROGRAMADO: FATURAR 30 DIAS APOS O 2° PEDIDO</t>
   </si>
 </sst>
 </file>
@@ -500,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,43 +636,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I2">
-        <v>356.535</v>
+        <v>138</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -599,43 +680,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>356.535</v>
+        <v>44.91</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -643,43 +724,43 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I4">
-        <v>356.535</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -687,43 +768,43 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I5">
-        <v>508.725</v>
+        <v>32.31</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -731,43 +812,43 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I6">
-        <v>465.975</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -775,43 +856,43 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I7">
-        <v>465.975</v>
+        <v>147.6</v>
       </c>
       <c r="J7">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -819,43 +900,527 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>24.75</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>14.85</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>68.31</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>44.91</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>414.675</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>592.98525</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>443.70225</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>410.52825</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8">
-        <v>465.975</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>414.675</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17">
+        <v>592.98525</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>443.70225</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19">
+        <v>410.52825</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
